--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-828" yWindow="348" windowWidth="5064" windowHeight="7872" activeTab="2"/>
+    <workbookView xWindow="-828" yWindow="348" windowWidth="5064" windowHeight="7872" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -443,6 +443,48 @@
   </si>
   <si>
     <t>Création de l'onglet 001A pour la table ARTDOC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>TVAZ</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>STO</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>DEFAUT</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>RT.ART.001.CRE.01</t>
+  </si>
+  <si>
+    <t>Un texte</t>
+  </si>
+  <si>
+    <t>//div[@id='DVID_NUMDOC1']</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -745,7 +787,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -796,6 +838,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3467,11 +3515,11 @@
   </sheetPr>
   <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3740,59 +3788,77 @@
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
     </row>
-    <row r="5" spans="1:40" ht="13.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:40" s="27" customFormat="1" ht="13.2">
+      <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="D5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12" t="s">
+      <c r="I5" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12" t="s">
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG5" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ5" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
     </row>
     <row r="6" spans="1:40" ht="14.4" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -3839,7 +3905,126 @@
       <c r="AN6" s="13"/>
     </row>
     <row r="7" spans="1:40" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" t="s">
+        <v>132</v>
+      </c>
+      <c r="W7" t="s">
+        <v>132</v>
+      </c>
+      <c r="X7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:40" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
@@ -6822,6 +7007,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6832,11 +7018,11 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -9880,11 +10066,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C23"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -9902,6 +10088,17 @@
       </c>
       <c r="C1" s="17" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="297">
   <si>
     <t>Date</t>
   </si>
@@ -792,13 +792,22 @@
     <t>ORG.RT.ART.001.LEC.01.........</t>
   </si>
   <si>
-    <t>ARTICLE GENERIQUE</t>
+    <t>ARTICLE D'ETE</t>
   </si>
   <si>
-    <t>TEXTE ARTICLE GENERIQUE</t>
+    <t>TEXTE ARTICLE D'ETE</t>
   </si>
   <si>
     <t>CCO.RT.ART.001.LEC.01</t>
+  </si>
+  <si>
+    <t>VENTE VALORISEE</t>
+  </si>
+  <si>
+    <t>ORG.RT.ART.001.LEC.01</t>
+  </si>
+  <si>
+    <t>FANNY</t>
   </si>
   <si>
     <t>RT.ART.001.MAJ.01</t>
@@ -823,6 +832,9 @@
   </si>
   <si>
     <t>RT.ART.001.REC.01</t>
+  </si>
+  <si>
+    <t>ARTICLE GENERIQUE</t>
   </si>
   <si>
     <t>RT.ART*001*ID_CODART</t>
@@ -912,7 +924,7 @@
     <t>REF RT.ART.001.LEC.01</t>
   </si>
   <si>
-    <t>DESIGNATION FOURNISSEUR ARTICLE GENERIQUE</t>
+    <t>DESIGNATION FOURNISSEUR ARTICLE D'ETE</t>
   </si>
   <si>
     <t>TEXTE1 RT.ART.001.LEC.01</t>
@@ -989,6 +1001,30 @@
     <t>//div[@id='DVID_NUMDOC1']</t>
   </si>
   <si>
+    <t>tab_Article</t>
+  </si>
+  <si>
+    <t>$TAB$ID_CODART</t>
+  </si>
+  <si>
+    <t>tab_ArticleSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_CODART</t>
+  </si>
+  <si>
+    <t>input_Filtre_Grille</t>
+  </si>
+  <si>
+    <t>$FILTREGRILLE$ID_CODART</t>
+  </si>
+  <si>
+    <t>td_Grille</t>
+  </si>
+  <si>
+    <t>$TDGRILLE$2$ID_CODART</t>
+  </si>
+  <si>
     <t>Champ</t>
   </si>
 </sst>
@@ -1000,7 +1036,7 @@
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1112,6 +1148,11 @@
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1243,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1469,6 +1510,15 @@
     </xf>
     <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -7880,7 +7930,7 @@
         <v>227</v>
       </c>
       <c r="K11" s="55" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>228</v>
@@ -7932,7 +7982,7 @@
       </c>
       <c r="AH11" s="56"/>
       <c r="AI11" s="57" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AJ11" s="19" t="s">
         <v>197</v>
@@ -7952,20 +8002,28 @@
       <c r="AO11" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
+      <c r="AP11" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ11" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR11" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS11" s="19" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>184</v>
@@ -7981,23 +8039,23 @@
         <v>200</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K12" s="55" t="s">
         <v>190</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N12" s="56"/>
       <c r="O12" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P12" s="56"/>
       <c r="Q12" s="56"/>
@@ -8032,10 +8090,10 @@
         <v>195</v>
       </c>
       <c r="AF12" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AH12" s="56"/>
       <c r="AI12" s="57" t="s">
@@ -8066,13 +8124,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="63"/>
@@ -8119,13 +8177,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="63"/>
@@ -37211,18 +37269,18 @@
         <v>1000.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B12" s="60">
         <v>1001.0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -40537,10 +40595,10 @@
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -40656,7 +40714,7 @@
         <v>178</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
@@ -40724,7 +40782,7 @@
         <v>182</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>184</v>
@@ -40736,13 +40794,13 @@
         <v>186</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K7" s="19">
         <v>10.0</v>
@@ -40755,13 +40813,13 @@
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="R7" s="72" t="s">
         <v>186</v>
@@ -40782,7 +40840,7 @@
         <v>45292.0</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y7" s="55" t="s">
         <v>195</v>
@@ -40808,7 +40866,7 @@
         <v>198</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>208</v>
@@ -40820,13 +40878,13 @@
         <v>186</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K8" s="19">
         <v>20.0</v>
@@ -40839,13 +40897,13 @@
       </c>
       <c r="N8" s="56"/>
       <c r="O8" s="19" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="R8" s="72" t="s">
         <v>186</v>
@@ -40866,7 +40924,7 @@
         <v>45292.0</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y8" s="55" t="s">
         <v>195</v>
@@ -40892,7 +40950,7 @@
         <v>207</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>208</v>
@@ -40904,13 +40962,13 @@
         <v>186</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K9" s="19">
         <v>30.0</v>
@@ -40923,13 +40981,13 @@
       </c>
       <c r="N9" s="56"/>
       <c r="O9" s="19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="R9" s="72" t="s">
         <v>186</v>
@@ -40950,7 +41008,7 @@
         <v>45292.0</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y9" s="55" t="s">
         <v>195</v>
@@ -40976,7 +41034,7 @@
         <v>216</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>208</v>
@@ -40988,13 +41046,13 @@
         <v>186</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K10" s="19">
         <v>40.0</v>
@@ -41007,13 +41065,13 @@
       </c>
       <c r="N10" s="56"/>
       <c r="O10" s="19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="R10" s="72" t="s">
         <v>186</v>
@@ -41034,7 +41092,7 @@
         <v>45292.0</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y10" s="55" t="s">
         <v>195</v>
@@ -41060,7 +41118,7 @@
         <v>224</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>208</v>
@@ -41072,13 +41130,13 @@
         <v>186</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K11" s="19">
         <v>50.0</v>
@@ -41091,13 +41149,13 @@
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="R11" s="72" t="s">
         <v>186</v>
@@ -41118,7 +41176,7 @@
         <v>45292.0</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y11" s="61" t="s">
         <v>195</v>
@@ -41135,16 +41193,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>184</v>
@@ -41156,13 +41214,13 @@
         <v>186</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K12" s="19">
         <v>100.0</v>
@@ -41175,13 +41233,13 @@
       </c>
       <c r="N12" s="56"/>
       <c r="O12" s="19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="R12" s="72" t="s">
         <v>186</v>
@@ -41219,13 +41277,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D13" s="74"/>
       <c r="E13" s="74"/>
@@ -41255,13 +41313,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="74"/>
@@ -53440,10 +53498,10 @@
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="49" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
@@ -53552,13 +53610,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D12" s="55">
         <v>1006.0</v>
@@ -53566,13 +53624,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D13" s="55">
         <v>1007.0</v>
@@ -53580,13 +53638,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D14" s="55">
         <v>1008.0</v>
@@ -56794,30 +56852,70 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.75" customHeight="1"/>
@@ -57844,7 +57942,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="41"/>
       <c r="B1" s="44" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>

--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -49,14 +49,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgU18AhfFE4vEJcTNdHzaFmp8F61A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi9bK+4XNxLweasw6rVEiPyul92GA=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="298">
   <si>
     <t>Date</t>
   </si>
@@ -3379,7 +3379,9 @@
       <c r="C30" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="E30" s="19" t="s">
         <v>29</v>
       </c>
@@ -3395,7 +3397,9 @@
       <c r="C31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="E31" s="19" t="s">
         <v>29</v>
       </c>
@@ -3411,7 +3415,9 @@
       <c r="C32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="E32" s="19" t="s">
         <v>29</v>
       </c>
@@ -7083,13 +7089,13 @@
       <c r="AA1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="45" t="s">
+      <c r="AB1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="45" t="s">
+      <c r="AC1" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="45" t="s">
+      <c r="AD1" s="46" t="s">
         <v>95</v>
       </c>
       <c r="AE1" s="46" t="s">
@@ -7184,15 +7190,9 @@
       <c r="Y2" s="49"/>
       <c r="Z2" s="49"/>
       <c r="AA2" s="49"/>
-      <c r="AB2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="51" t="s">
-        <v>28</v>
-      </c>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
       <c r="AE2" s="49"/>
       <c r="AF2" s="49"/>
       <c r="AG2" s="49"/>
@@ -7523,14 +7523,14 @@
       <c r="AA7" s="60">
         <v>0.0</v>
       </c>
-      <c r="AB7" s="19">
-        <v>100.0</v>
-      </c>
-      <c r="AC7" s="19">
-        <v>200.0</v>
-      </c>
-      <c r="AD7" s="19">
-        <v>300.0</v>
+      <c r="AB7" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC7" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD7" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="AE7" s="60" t="s">
         <v>196</v>
@@ -7638,14 +7638,14 @@
       <c r="AA8" s="60">
         <v>0.0</v>
       </c>
-      <c r="AB8" s="19">
-        <v>110.0</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>210.0</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>310.0</v>
+      <c r="AB8" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC8" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD8" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="AE8" s="60" t="s">
         <v>196</v>
@@ -7753,14 +7753,14 @@
       <c r="AA9" s="60">
         <v>0.0</v>
       </c>
-      <c r="AB9" s="19">
-        <v>120.0</v>
-      </c>
-      <c r="AC9" s="19">
-        <v>220.0</v>
-      </c>
-      <c r="AD9" s="19">
-        <v>320.0</v>
+      <c r="AB9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD9" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="AE9" s="60" t="s">
         <v>196</v>
@@ -7868,14 +7868,14 @@
       <c r="AA10" s="60">
         <v>0.0</v>
       </c>
-      <c r="AB10" s="19">
-        <v>130.0</v>
-      </c>
-      <c r="AC10" s="19">
-        <v>230.0</v>
-      </c>
-      <c r="AD10" s="19">
-        <v>330.0</v>
+      <c r="AB10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD10" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="AE10" s="60" t="s">
         <v>196</v>
@@ -7983,14 +7983,14 @@
       <c r="AA11" s="60">
         <v>0.0</v>
       </c>
-      <c r="AB11" s="19">
-        <v>140.0</v>
-      </c>
-      <c r="AC11" s="19">
-        <v>240.0</v>
-      </c>
-      <c r="AD11" s="19">
-        <v>340.0</v>
+      <c r="AB11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD11" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="AE11" s="60" t="s">
         <v>196</v>
@@ -8106,14 +8106,14 @@
       <c r="AA12" s="60">
         <v>0.0</v>
       </c>
-      <c r="AB12" s="19">
-        <v>150.0</v>
-      </c>
-      <c r="AC12" s="19">
-        <v>250.0</v>
-      </c>
-      <c r="AD12" s="19">
-        <v>350.0</v>
+      <c r="AB12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD12" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="AE12" s="60" t="s">
         <v>196</v>
@@ -8277,6 +8277,9 @@
       <c r="Y15" s="71"/>
       <c r="Z15" s="71"/>
       <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
       <c r="AE15" s="71"/>
       <c r="AH15" s="61"/>
       <c r="AK15" s="71"/>
@@ -8304,6 +8307,9 @@
       <c r="Y16" s="71"/>
       <c r="Z16" s="71"/>
       <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
       <c r="AE16" s="71"/>
       <c r="AH16" s="61"/>
       <c r="AK16" s="71"/>

--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -28,28 +28,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D19">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAA0bKFVE8
-Nicolas HUC    (2023-07-06 06:58:03)
-@jean-marc.lafarge-ext@apave.com Question à élucider
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA1Nt11Zw
-Jean-Marc LAFARGE    (2023-07-18 09:38:55)
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_
-------
-ID#AAAA1Nt11Z0
-Jean-Marc LAFARGE    (2023-07-18 09:40:56)
-rien à voir avec la notion de matricule obligatoire, si le champ est à O, lors d'une sortie de stock, l'article en question est automatiquement ajouté dans la table ART_EQU de l'équipement concerné (fonction héritée de Mainta SI).
-------
-ID#AAAA1Nt11Z4
-Jean-Marc LAFARGE    (2023-07-18 09:41:03)
-@nicolas.huc@apave.com</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="D59">
       <text>
         <t xml:space="preserve">======
@@ -60,20 +38,29 @@
 ------
 ID#AAAA1Nt11Zs
 Jean-Marc LAFARGE    (2023-07-18 09:38:41)
-représente le coefficient quantité de commande d'un article chez un fournisseur. Mis à jour lors du changement d'unité article dans le catalogue</t>
+représente le coefficient quantité de commande d'un article chez un fournisseur. Mis à jour lors du changement d'unité article dans le catalogue
+------
+ID#AAAA1ZE6IcU
+Jean-Marc LAFARGE    (2023-07-19 05:50:34)
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_
+------
+ID#AAAA1ZOAlf4
+Nicolas HUC    (2023-07-19 05:54:05)
+Cette rubrique est-elle utilisée en dehors de cette table ? Je ne vois pas l'intérêt puisque le coefficient est défini au niveau de l'unité-même (Cela me semble même risqué de le stocker au niveau de ART_FOU).</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miz/Jn5muFVKSFlTwfSEffhMxbi7w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miOuwlrD90DL9ShMxGMy1k4GwuZ0g=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="308">
   <si>
     <t>Date</t>
   </si>
@@ -299,7 +286,7 @@
     <t>ST_CRENOM</t>
   </si>
   <si>
-    <t>OBSOLETE ? Question MOE</t>
+    <t>Apprentissage automatique de la nomenclature</t>
   </si>
   <si>
     <t>NU_DEL</t>
@@ -512,6 +499,9 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>OBSOLETE ? Question MOE</t>
+  </si>
+  <si>
     <t>???</t>
   </si>
   <si>
@@ -688,6 +678,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>$DATETIMESYS</t>
   </si>
   <si>
@@ -833,9 +826,6 @@
   </si>
   <si>
     <t>CCO.UPD.RT.ART.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>RT.ART.001.SUP.01</t>
@@ -3213,14 +3203,12 @@
         <v>68</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="19" t="s">
         <v>29</v>
       </c>
@@ -3920,19 +3908,19 @@
         <v>37</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F59" s="34"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="31" t="s">
         <v>57</v>
@@ -3945,10 +3933,10 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>57</v>
@@ -3961,10 +3949,10 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>57</v>
@@ -3980,13 +3968,13 @@
         <v>87</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>29</v>
@@ -3995,16 +3983,16 @@
     </row>
     <row r="64">
       <c r="A64" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>29</v>
@@ -4016,7 +4004,7 @@
         <v>76</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>78</v>
@@ -4031,10 +4019,10 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>78</v>
@@ -4047,10 +4035,10 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>78</v>
@@ -4063,10 +4051,10 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>78</v>
@@ -4079,10 +4067,10 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>65</v>
@@ -4138,7 +4126,7 @@
         <v>113</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>78</v>
@@ -4156,7 +4144,7 @@
         <v>115</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>78</v>
@@ -4171,10 +4159,10 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" s="39"/>
       <c r="D74" s="26">
@@ -4221,10 +4209,10 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" s="32" t="s">
         <v>37</v>
@@ -7163,19 +7151,19 @@
         <v>115</v>
       </c>
       <c r="AO1" s="48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP1" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ1" s="48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AR1" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS1" s="48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -7192,7 +7180,7 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -7205,9 +7193,7 @@
       <c r="P2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="50" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q2" s="50"/>
       <c r="R2" s="50" t="s">
         <v>28</v>
       </c>
@@ -7247,7 +7233,7 @@
     </row>
     <row r="3">
       <c r="A3" s="49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -7290,27 +7276,27 @@
       <c r="AN3" s="49"/>
       <c r="AO3" s="49"/>
       <c r="AP3" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AQ3" s="49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AR3" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AS3" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
       <c r="E4" s="50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
@@ -7355,39 +7341,39 @@
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K5" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="51" t="s">
-        <v>180</v>
-      </c>
       <c r="M5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N5" s="51"/>
       <c r="O5" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
@@ -7401,48 +7387,48 @@
       <c r="Y5" s="51"/>
       <c r="Z5" s="51"/>
       <c r="AA5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB5" s="51"/>
       <c r="AC5" s="51"/>
       <c r="AD5" s="51"/>
       <c r="AE5" s="51"/>
       <c r="AF5" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG5" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH5" s="51"/>
       <c r="AI5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ5" s="51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK5" s="51"/>
       <c r="AL5" s="51"/>
       <c r="AM5" s="51"/>
       <c r="AN5" s="51"/>
       <c r="AO5" s="52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP5" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AQ5" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AR5" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AS5" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -7491,113 +7477,115 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N7" s="57"/>
       <c r="O7" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P7" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q7" s="57"/>
+        <v>190</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
       <c r="T7" s="57"/>
       <c r="U7" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="V7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="W7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="X7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE7" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF7" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="V7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="W7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="X7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE7" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="AG7" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AH7" s="57"/>
       <c r="AI7" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK7" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL7" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM7" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="AJ7" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK7" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL7" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM7" s="56" t="s">
+      <c r="AN7" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO7" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="AN7" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO7" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="AP7" s="19"/>
       <c r="AQ7" s="19"/>
@@ -7606,113 +7594,115 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N8" s="57"/>
       <c r="O8" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P8" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q8" s="57"/>
+        <v>190</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
       <c r="T8" s="57"/>
       <c r="U8" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="V8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="W8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="X8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE8" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF8" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="W8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="X8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE8" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="AG8" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AH8" s="57"/>
       <c r="AI8" s="59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AJ8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK8" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="AK8" s="56" t="s">
-        <v>198</v>
-      </c>
       <c r="AL8" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM8" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO8" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="AN8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO8" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="19"/>
@@ -7721,113 +7711,115 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N9" s="57"/>
       <c r="O9" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P9" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q9" s="57"/>
+        <v>190</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
       <c r="U9" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="V9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="W9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="X9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA9" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE9" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF9" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="V9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="W9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="X9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA9" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE9" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="AG9" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AH9" s="57"/>
       <c r="AI9" s="59" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AJ9" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK9" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="AK9" s="56" t="s">
-        <v>198</v>
-      </c>
       <c r="AL9" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM9" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO9" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="AN9" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO9" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="AP9" s="19"/>
       <c r="AQ9" s="19"/>
@@ -7836,113 +7828,115 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N10" s="57"/>
       <c r="O10" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P10" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="57"/>
+        <v>190</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
       <c r="T10" s="57"/>
       <c r="U10" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="V10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="W10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="X10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA10" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE10" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF10" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="V10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="W10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="X10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE10" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF10" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="AG10" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AH10" s="57"/>
       <c r="AI10" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK10" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL10" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM10" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="AJ10" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK10" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL10" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM10" s="56" t="s">
+      <c r="AN10" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO10" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="AN10" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO10" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="AP10" s="19"/>
       <c r="AQ10" s="19"/>
@@ -7951,236 +7945,240 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E11" s="62">
         <v>1000.0</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N11" s="57"/>
       <c r="O11" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P11" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q11" s="57"/>
+        <v>190</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
       <c r="U11" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="V11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="W11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="X11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA11" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD11" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE11" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF11" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="V11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="W11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="X11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA11" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE11" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF11" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="AG11" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AH11" s="57"/>
       <c r="AI11" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ11" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK11" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL11" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM11" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="AJ11" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK11" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL11" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM11" s="63" t="s">
+      <c r="AN11" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO11" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="AN11" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO11" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="AP11" s="19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AQ11" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR11" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS11" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="AR11" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS11" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E12" s="62">
         <v>1001.0</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N12" s="57"/>
       <c r="O12" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="P12" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q12" s="57"/>
+        <v>190</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
       <c r="T12" s="57"/>
       <c r="U12" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE12" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF12" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AF12" s="19" t="s">
-        <v>246</v>
-      </c>
       <c r="AG12" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="AH12" s="57"/>
       <c r="AI12" s="59" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AJ12" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK12" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AK12" s="63" t="s">
-        <v>198</v>
-      </c>
       <c r="AL12" s="63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM12" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN12" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO12" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="AN12" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO12" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
@@ -8189,13 +8187,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
@@ -8242,13 +8240,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D14" s="65"/>
       <c r="E14" s="64"/>
@@ -36151,98 +36149,98 @@
     </row>
     <row r="3">
       <c r="A3" s="49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="49"/>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="49"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11" s="62">
         <v>1000.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B12" s="62">
         <v>1001.0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -39509,34 +39507,34 @@
         <v>138</v>
       </c>
       <c r="O1" s="71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" s="71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R1" s="71" t="s">
         <v>87</v>
       </c>
       <c r="S1" s="71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T1" s="46" t="s">
         <v>76</v>
       </c>
       <c r="U1" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V1" s="71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W1" s="71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X1" s="71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y1" s="46" t="s">
         <v>110</v>
@@ -39557,10 +39555,10 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -39591,7 +39589,7 @@
     </row>
     <row r="3">
       <c r="A3" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -39623,7 +39621,7 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -39655,33 +39653,33 @@
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="50"/>
       <c r="I5" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K5" s="50"/>
       <c r="L5" s="50"/>
       <c r="M5" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N5" s="51"/>
       <c r="O5" s="50"/>
@@ -39694,7 +39692,7 @@
       <c r="V5" s="50"/>
       <c r="W5" s="50"/>
       <c r="X5" s="50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y5" s="51"/>
       <c r="Z5" s="51"/>
@@ -39703,7 +39701,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -39735,34 +39733,34 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F7" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>189</v>
-      </c>
       <c r="H7" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K7" s="19">
         <v>10.0</v>
@@ -39775,13 +39773,13 @@
       </c>
       <c r="N7" s="57"/>
       <c r="O7" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R7" s="19">
         <v>0.0</v>
@@ -39790,10 +39788,10 @@
         <v>0.0</v>
       </c>
       <c r="T7" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U7" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V7" s="73">
         <v>44927.0</v>
@@ -39802,51 +39800,51 @@
         <v>45292.0</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="Y7" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z7" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AA7" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB7" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K8" s="19">
         <v>20.0</v>
@@ -39859,13 +39857,13 @@
       </c>
       <c r="N8" s="57"/>
       <c r="O8" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R8" s="19">
         <v>0.0</v>
@@ -39874,10 +39872,10 @@
         <v>0.0</v>
       </c>
       <c r="T8" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U8" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V8" s="73">
         <v>44927.0</v>
@@ -39886,51 +39884,51 @@
         <v>45292.0</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="Y8" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z8" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AA8" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB8" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K9" s="19">
         <v>30.0</v>
@@ -39943,13 +39941,13 @@
       </c>
       <c r="N9" s="57"/>
       <c r="O9" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R9" s="19">
         <v>0.0</v>
@@ -39958,10 +39956,10 @@
         <v>0.0</v>
       </c>
       <c r="T9" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U9" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V9" s="73">
         <v>44927.0</v>
@@ -39970,51 +39968,51 @@
         <v>45292.0</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="Y9" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z9" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB9" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K10" s="19">
         <v>40.0</v>
@@ -40027,13 +40025,13 @@
       </c>
       <c r="N10" s="57"/>
       <c r="O10" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R10" s="19">
         <v>0.0</v>
@@ -40042,10 +40040,10 @@
         <v>0.0</v>
       </c>
       <c r="T10" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U10" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V10" s="73">
         <v>44927.0</v>
@@ -40054,51 +40052,51 @@
         <v>45292.0</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="Y10" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB10" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K11" s="19">
         <v>50.0</v>
@@ -40111,13 +40109,13 @@
       </c>
       <c r="N11" s="57"/>
       <c r="O11" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R11" s="19">
         <v>0.0</v>
@@ -40126,10 +40124,10 @@
         <v>0.0</v>
       </c>
       <c r="T11" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U11" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V11" s="73">
         <v>44927.0</v>
@@ -40138,51 +40136,51 @@
         <v>45292.0</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="Y11" s="63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z11" s="63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AA11" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB11" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K12" s="19">
         <v>100.0</v>
@@ -40195,13 +40193,13 @@
       </c>
       <c r="N12" s="57"/>
       <c r="O12" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R12" s="19">
         <v>0.0</v>
@@ -40210,10 +40208,10 @@
         <v>0.0</v>
       </c>
       <c r="T12" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U12" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V12" s="73">
         <v>44562.0</v>
@@ -40222,30 +40220,30 @@
         <v>45658.0</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y12" s="63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z12" s="63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AA12" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB12" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D13" s="74"/>
       <c r="E13" s="74"/>
@@ -40275,13 +40273,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="74"/>
@@ -52420,7 +52418,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>25</v>
@@ -52429,7 +52427,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
@@ -52460,15 +52458,15 @@
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="79"/>
@@ -52476,7 +52474,7 @@
     </row>
     <row r="4">
       <c r="A4" s="77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
@@ -52484,17 +52482,17 @@
     </row>
     <row r="5">
       <c r="A5" s="77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="78"/>
       <c r="C5" s="80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="51"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="82"/>
@@ -52502,13 +52500,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D7" s="56">
         <v>1001.0</v>
@@ -52516,13 +52514,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D8" s="56">
         <v>1002.0</v>
@@ -52530,13 +52528,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D9" s="56">
         <v>1003.0</v>
@@ -52544,13 +52542,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D10" s="56">
         <v>1004.0</v>
@@ -52558,13 +52556,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D11" s="56">
         <v>1005.0</v>
@@ -52572,13 +52570,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D12" s="56">
         <v>1006.0</v>
@@ -52586,13 +52584,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D13" s="56">
         <v>1007.0</v>
@@ -52600,13 +52598,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D14" s="56">
         <v>1008.0</v>
@@ -55814,68 +55812,68 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
@@ -56904,7 +56902,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -56939,25 +56937,25 @@
     </row>
     <row r="3">
       <c r="A3" s="49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="49"/>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="49"/>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="49"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="53"/>
     </row>

--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="306">
   <si>
     <t>Date</t>
   </si>
@@ -39727,9 +39727,7 @@
       <c r="M7" s="19">
         <v>1.0</v>
       </c>
-      <c r="N7" s="57" t="s">
-        <v>188</v>
-      </c>
+      <c r="N7" s="57"/>
       <c r="O7" s="19" t="s">
         <v>257</v>
       </c>
@@ -39813,9 +39811,7 @@
       <c r="M8" s="19">
         <v>2.0</v>
       </c>
-      <c r="N8" s="57" t="s">
-        <v>188</v>
-      </c>
+      <c r="N8" s="57"/>
       <c r="O8" s="19" t="s">
         <v>263</v>
       </c>
@@ -39899,9 +39895,7 @@
       <c r="M9" s="19">
         <v>3.0</v>
       </c>
-      <c r="N9" s="57" t="s">
-        <v>188</v>
-      </c>
+      <c r="N9" s="57"/>
       <c r="O9" s="19" t="s">
         <v>269</v>
       </c>
@@ -39985,9 +39979,7 @@
       <c r="M10" s="19">
         <v>4.0</v>
       </c>
-      <c r="N10" s="57" t="s">
-        <v>188</v>
-      </c>
+      <c r="N10" s="57"/>
       <c r="O10" s="19" t="s">
         <v>275</v>
       </c>
@@ -40071,9 +40063,7 @@
       <c r="M11" s="19">
         <v>5.0</v>
       </c>
-      <c r="N11" s="57" t="s">
-        <v>188</v>
-      </c>
+      <c r="N11" s="57"/>
       <c r="O11" s="19" t="s">
         <v>281</v>
       </c>
@@ -40157,9 +40147,7 @@
       <c r="M12" s="19">
         <v>10.0</v>
       </c>
-      <c r="N12" s="57" t="s">
-        <v>188</v>
-      </c>
+      <c r="N12" s="57"/>
       <c r="O12" s="19" t="s">
         <v>287</v>
       </c>

--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -7477,7 +7477,7 @@
         <v>188</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R7" s="56"/>
       <c r="S7" s="56"/>
@@ -7594,7 +7594,7 @@
         <v>188</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
@@ -7711,7 +7711,7 @@
         <v>188</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R9" s="56"/>
       <c r="S9" s="56"/>
@@ -7828,7 +7828,7 @@
         <v>188</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
@@ -7945,7 +7945,7 @@
         <v>188</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R11" s="56"/>
       <c r="S11" s="56"/>
@@ -8070,7 +8070,7 @@
         <v>188</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R12" s="56"/>
       <c r="S12" s="56"/>

--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -10,20 +10,21 @@
     <sheet state="visible" name="001B" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="001C" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="IHMTO" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="MODELE" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="INTERNALVALUE" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="MODELE" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="Tw65faPQ0r6MglcTimOrGmnMy3+sLipqHAMDVMSt65Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="ILTBke48YzC+AXCoLRNnV/32EavZUYvBAP9xxJNlKGg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="314">
   <si>
     <t>Date</t>
   </si>
@@ -806,6 +807,12 @@
     <t>RO.FOU*001*ID_CODFOU</t>
   </si>
   <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>ART_FOU.ST_QTETYP</t>
+  </si>
+  <si>
     <t>//input[@id='ST_DESFOU' and not(@type='hidden')]</t>
   </si>
   <si>
@@ -986,6 +993,24 @@
   </si>
   <si>
     <t>$TDGRILLE$2$ID_CODART</t>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>VALEUR INTERNE</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>Documentaire</t>
+  </si>
+  <si>
+    <t>Au moins</t>
+  </si>
+  <si>
+    <t>Multiple de</t>
   </si>
   <si>
     <t>Champ</t>
@@ -1247,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1484,6 +1509,15 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1521,6 +1555,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -39396,10 +39434,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -39415,6 +39453,7 @@
     <col customWidth="1" min="14" max="14" width="12.63"/>
     <col customWidth="1" min="15" max="17" width="26.63"/>
     <col customWidth="1" min="18" max="18" width="22.88"/>
+    <col customWidth="1" min="19" max="19" width="18.5"/>
     <col customWidth="1" min="20" max="21" width="13.0"/>
     <col customWidth="1" min="25" max="28" width="13.0"/>
   </cols>
@@ -39555,7 +39594,7 @@
       <c r="G3" s="48"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
@@ -39609,186 +39648,136 @@
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>179</v>
-      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="50"/>
       <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>253</v>
-      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
-      <c r="M5" s="49" t="s">
-        <v>179</v>
-      </c>
+      <c r="M5" s="49"/>
       <c r="N5" s="50"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
       <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
+      <c r="S5" s="49" t="s">
+        <v>254</v>
+      </c>
       <c r="T5" s="50"/>
       <c r="U5" s="50"/>
       <c r="V5" s="49"/>
       <c r="W5" s="49"/>
-      <c r="X5" s="49" t="s">
-        <v>181</v>
-      </c>
+      <c r="X5" s="49"/>
       <c r="Y5" s="50"/>
       <c r="Z5" s="50"/>
       <c r="AA5" s="50"/>
       <c r="AB5" s="50"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="71" t="s">
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="N7" s="57"/>
-      <c r="O7" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="R7" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="S7" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="T7" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="U7" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="V7" s="72">
-        <v>44927.0</v>
-      </c>
-      <c r="W7" s="72">
-        <v>45292.0</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y7" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z7" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA7" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB7" s="55" t="s">
-        <v>188</v>
-      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="54" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>188</v>
@@ -39797,29 +39786,29 @@
         <v>245</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K8" s="19">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="L8" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M8" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" s="57"/>
       <c r="O8" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="R8" s="19">
         <v>0.0</v>
@@ -39857,22 +39846,22 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="54" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>184</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>212</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>188</v>
@@ -39881,29 +39870,29 @@
         <v>245</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K9" s="19">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="L9" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M9" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N9" s="57"/>
       <c r="O9" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R9" s="19">
         <v>0.0</v>
@@ -39941,22 +39930,22 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="54" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>184</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>212</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>188</v>
@@ -39965,29 +39954,29 @@
         <v>245</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K10" s="19">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="L10" s="19">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="M10" s="19">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N10" s="57"/>
       <c r="O10" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="R10" s="19">
         <v>0.0</v>
@@ -40025,22 +40014,22 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>184</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>212</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>188</v>
@@ -40049,29 +40038,29 @@
         <v>245</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K11" s="19">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="L11" s="19">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="M11" s="19">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="N11" s="57"/>
       <c r="O11" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="R11" s="19">
         <v>0.0</v>
@@ -40079,10 +40068,10 @@
       <c r="S11" s="19">
         <v>0.0</v>
       </c>
-      <c r="T11" s="62" t="s">
+      <c r="T11" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="U11" s="62" t="s">
+      <c r="U11" s="55" t="s">
         <v>196</v>
       </c>
       <c r="V11" s="72">
@@ -40094,37 +40083,37 @@
       <c r="X11" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="Y11" s="62" t="s">
+      <c r="Y11" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="Z11" s="62" t="s">
+      <c r="Z11" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="AA11" s="62" t="s">
+      <c r="AA11" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="AB11" s="62" t="s">
-        <v>196</v>
+      <c r="AB11" s="55" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>184</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>188</v>
@@ -40133,29 +40122,29 @@
         <v>245</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K12" s="19">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="L12" s="19">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="M12" s="19">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="N12" s="57"/>
       <c r="O12" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="R12" s="19">
         <v>0.0</v>
@@ -40170,13 +40159,13 @@
         <v>196</v>
       </c>
       <c r="V12" s="72">
-        <v>44562.0</v>
+        <v>44927.0</v>
       </c>
       <c r="W12" s="72">
-        <v>45658.0</v>
+        <v>45292.0</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="Y12" s="62" t="s">
         <v>197</v>
@@ -40193,49 +40182,97 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="73"/>
+        <v>240</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="L13" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="T13" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="U13" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="V13" s="72">
+        <v>44562.0</v>
+      </c>
+      <c r="W13" s="72">
+        <v>45658.0</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y13" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z13" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA13" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB13" s="62" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>184</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
@@ -40264,17 +40301,40 @@
       <c r="AB14" s="73"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="A15" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
       <c r="N15" s="56"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="65"/>
@@ -40291,7 +40351,6 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="65"/>
-      <c r="D17" s="74"/>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
       <c r="G17" s="66"/>
@@ -40347,6 +40406,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="65"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
@@ -42946,6 +43006,7 @@
       <c r="AB220" s="66"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="65"/>
       <c r="E221" s="66"/>
       <c r="F221" s="66"/>
       <c r="G221" s="66"/>
@@ -52340,6 +52401,18 @@
       <c r="Z1003" s="66"/>
       <c r="AA1003" s="66"/>
       <c r="AB1003" s="66"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="E1004" s="66"/>
+      <c r="F1004" s="66"/>
+      <c r="G1004" s="66"/>
+      <c r="N1004" s="56"/>
+      <c r="T1004" s="66"/>
+      <c r="U1004" s="66"/>
+      <c r="Y1004" s="66"/>
+      <c r="Z1004" s="66"/>
+      <c r="AA1004" s="66"/>
+      <c r="AB1004" s="66"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -52417,7 +52490,7 @@
         <v>251</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
@@ -55768,68 +55841,68 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="85" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="85" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
@@ -56838,6 +56911,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="90">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="90">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="90">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -56858,7 +56993,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="41"/>
       <c r="B1" s="44" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>

--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -998,10 +998,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>VALEUR INTERNE</t>
+    <t>VALUE</t>
   </si>
   <si>
-    <t>VALEUR</t>
+    <t>TEXTE IHM</t>
   </si>
   <si>
     <t>Documentaire</t>
@@ -1024,7 +1024,7 @@
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1141,6 +1141,11 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1272,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1509,8 +1514,11 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -56927,40 +56935,40 @@
       <c r="B1" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="89" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="91">
         <v>0.0</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="90">
+      <c r="B3" s="91">
         <v>1.0</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="90" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="91">
         <v>2.0</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="90" t="s">
         <v>312</v>
       </c>
     </row>

--- a/TNR_JDD/JDD.RT.ART.xlsx
+++ b/TNR_JDD/JDD.RT.ART.xlsx
@@ -17,14 +17,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="ILTBke48YzC+AXCoLRNnV/32EavZUYvBAP9xxJNlKGg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="R8UA5/VCmENPhjqu/dp3E3x2zDEUHDPEfFVuBMNsm7U="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="324">
   <si>
     <t>Date</t>
   </si>
@@ -582,6 +582,15 @@
     <t>ARTDOC_ID</t>
   </si>
   <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>ART.ST_TYPART</t>
+  </si>
+  <si>
+    <t>ART.ST_ETA</t>
+  </si>
+  <si>
     <t>LOCATOR</t>
   </si>
   <si>
@@ -798,6 +807,9 @@
     <t>RT_ART_001_REC_01</t>
   </si>
   <si>
+    <t>//div[@id='DVID_NUMDOC']/p/span</t>
+  </si>
+  <si>
     <t>ARTICLE GENERIQUE</t>
   </si>
   <si>
@@ -805,9 +817,6 @@
   </si>
   <si>
     <t>RO.FOU*001*ID_CODFOU</t>
-  </si>
-  <si>
-    <t>INTERNALVALUE</t>
   </si>
   <si>
     <t>ART_FOU.ST_QTETYP</t>
@@ -965,12 +974,6 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>//div[@id='DVID_NUMDOC1']</t>
-  </si>
-  <si>
     <t>tab_Article</t>
   </si>
   <si>
@@ -981,6 +984,18 @@
   </si>
   <si>
     <t>$TABSELECTED$ID_CODART</t>
+  </si>
+  <si>
+    <t>tab_Notes</t>
+  </si>
+  <si>
+    <t>$TAB$NOTES</t>
+  </si>
+  <si>
+    <t>tab_NotesSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$NOTES</t>
   </si>
   <si>
     <t>input_Filtre_Grille</t>
@@ -1011,6 +1026,21 @@
   </si>
   <si>
     <t>Multiple de</t>
+  </si>
+  <si>
+    <t>Indéfini</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Hors Stock</t>
+  </si>
+  <si>
+    <t>Prestation</t>
+  </si>
+  <si>
+    <t>Defaut</t>
   </si>
   <si>
     <t>Champ</t>
@@ -1128,13 +1158,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1277,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1455,6 +1485,9 @@
     </xf>
     <xf borderId="3" fillId="14" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1476,7 +1509,7 @@
     <xf borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1485,16 +1518,16 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="11" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="11" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1525,6 +1558,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6995,10 +7034,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -7342,41 +7381,25 @@
       <c r="AS4" s="48"/>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>178</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>179</v>
-      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>179</v>
-      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
-        <v>181</v>
-      </c>
+      <c r="O5" s="50"/>
       <c r="P5" s="50"/>
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
@@ -7388,23 +7411,15 @@
       <c r="X5" s="50"/>
       <c r="Y5" s="50"/>
       <c r="Z5" s="50"/>
-      <c r="AA5" s="50" t="s">
-        <v>179</v>
-      </c>
+      <c r="AA5" s="50"/>
       <c r="AB5" s="50"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="50"/>
       <c r="AE5" s="50"/>
-      <c r="AF5" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" s="50" t="s">
-        <v>181</v>
-      </c>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
-      <c r="AI5" s="50" t="s">
-        <v>179</v>
-      </c>
+      <c r="AI5" s="50"/>
       <c r="AJ5" s="50" t="s">
         <v>180</v>
       </c>
@@ -7412,299 +7427,259 @@
       <c r="AL5" s="50"/>
       <c r="AM5" s="50"/>
       <c r="AN5" s="50"/>
-      <c r="AO5" s="51" t="s">
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="AP5" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ5" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="AR5" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS5" s="48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="D6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="L6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG6" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ6" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP6" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ6" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR6" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS6" s="48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="V7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="W7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="X7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE7" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ7" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK7" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL7" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM7" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN7" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="54" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="N8" s="56"/>
       <c r="O8" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P8" s="57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
       <c r="U8" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="V8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="W8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Y8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Z8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AB8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AC8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AD8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AE8" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF8" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AH8" s="56"/>
       <c r="AI8" s="58" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AJ8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK8" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL8" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM8" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="AK8" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL8" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM8" s="55" t="s">
-        <v>196</v>
-      </c>
       <c r="AN8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AO8" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="19"/>
@@ -7713,115 +7688,115 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="54" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N9" s="56"/>
       <c r="O9" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P9" s="57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="R9" s="56"/>
       <c r="S9" s="56"/>
       <c r="T9" s="56"/>
       <c r="U9" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="V9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="W9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Y9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Z9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AB9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AC9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AD9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AE9" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF9" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AH9" s="56"/>
       <c r="AI9" s="58" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AJ9" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK9" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL9" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM9" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="AK9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM9" s="55" t="s">
-        <v>196</v>
-      </c>
       <c r="AN9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AO9" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AP9" s="19"/>
       <c r="AQ9" s="19"/>
@@ -7830,115 +7805,115 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="54" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>219</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="N10" s="56"/>
       <c r="O10" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
       <c r="T10" s="56"/>
       <c r="U10" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="V10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="W10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Y10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Z10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AB10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AC10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AD10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AE10" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF10" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AH10" s="56"/>
       <c r="AI10" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK10" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL10" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM10" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN10" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO10" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="AJ10" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK10" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL10" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM10" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN10" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO10" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="AP10" s="19"/>
       <c r="AQ10" s="19"/>
@@ -7947,310 +7922,374 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>230</v>
+        <v>187</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="61">
-        <v>1000.0</v>
+        <v>225</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>190</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>216</v>
+        <v>228</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P11" s="57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="R11" s="56"/>
       <c r="S11" s="56"/>
       <c r="T11" s="56"/>
       <c r="U11" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="V11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="W11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Y11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Z11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AB11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AC11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AD11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AE11" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AH11" s="56"/>
       <c r="AI11" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ11" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK11" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL11" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM11" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN11" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO11" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AJ11" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK11" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL11" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM11" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN11" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO11" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AP11" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="AQ11" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR11" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS11" s="19" t="s">
-        <v>235</v>
-      </c>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E12" s="61">
-        <v>1001.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N12" s="56"/>
       <c r="O12" s="19" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="P12" s="57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="R12" s="56"/>
       <c r="S12" s="56"/>
       <c r="T12" s="56"/>
       <c r="U12" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="V12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="W12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Y12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Z12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AB12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AC12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AD12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AE12" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF12" s="19" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="AH12" s="56"/>
       <c r="AI12" s="58" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="AJ12" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK12" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL12" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM12" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="AK12" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL12" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM12" s="62" t="s">
-        <v>196</v>
-      </c>
       <c r="AN12" s="62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AO12" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
+        <v>198</v>
+      </c>
+      <c r="AP12" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ12" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR12" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS12" s="19" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="61">
+        <v>1001.0</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="60" t="s">
+      <c r="M13" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="V13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="W13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="X13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA13" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE13" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF13" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ13" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK13" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL13" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM13" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN13" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO13" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="64"/>
+        <v>250</v>
+      </c>
+      <c r="D14" s="57"/>
       <c r="E14" s="63"/>
       <c r="F14" s="64"/>
       <c r="G14" s="63"/>
@@ -8294,33 +8333,57 @@
       <c r="AS14" s="64"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="N15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AH15" s="56"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
+      <c r="A15" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="65"/>
@@ -14239,6 +14302,7 @@
       <c r="AN219" s="66"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="65"/>
       <c r="B220" s="66"/>
       <c r="E220" s="66"/>
       <c r="F220" s="56"/>
@@ -36078,6 +36142,34 @@
       <c r="AM999" s="66"/>
       <c r="AN999" s="66"/>
     </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="B1000" s="66"/>
+      <c r="E1000" s="66"/>
+      <c r="F1000" s="56"/>
+      <c r="G1000" s="66"/>
+      <c r="K1000" s="66"/>
+      <c r="N1000" s="56"/>
+      <c r="P1000" s="56"/>
+      <c r="Q1000" s="56"/>
+      <c r="R1000" s="56"/>
+      <c r="S1000" s="56"/>
+      <c r="T1000" s="56"/>
+      <c r="U1000" s="66"/>
+      <c r="V1000" s="66"/>
+      <c r="W1000" s="66"/>
+      <c r="X1000" s="66"/>
+      <c r="Y1000" s="66"/>
+      <c r="Z1000" s="66"/>
+      <c r="AB1000" s="66"/>
+      <c r="AC1000" s="66"/>
+      <c r="AD1000" s="66"/>
+      <c r="AE1000" s="66"/>
+      <c r="AH1000" s="56"/>
+      <c r="AK1000" s="66"/>
+      <c r="AL1000" s="66"/>
+      <c r="AM1000" s="66"/>
+      <c r="AN1000" s="66"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -36104,7 +36196,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="13.0"/>
-    <col customWidth="1" min="3" max="3" width="19.5"/>
+    <col customWidth="1" min="3" max="3" width="32.13"/>
     <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
@@ -36167,91 +36259,93 @@
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="67" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="54" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="54" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B11" s="61">
         <v>1000.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B12" s="61">
         <v>1001.0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="65"/>
-      <c r="B13" s="67"/>
+      <c r="B13" s="68"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="65"/>
-      <c r="B14" s="67"/>
+      <c r="B14" s="68"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="65"/>
@@ -39467,16 +39561,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="70" t="s">
         <v>125</v>
       </c>
       <c r="E1" s="45" t="s">
@@ -39488,40 +39582,40 @@
       <c r="G1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="71" t="s">
         <v>70</v>
       </c>
       <c r="N1" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="71" t="s">
         <v>148</v>
       </c>
       <c r="T1" s="45" t="s">
@@ -39530,13 +39624,13 @@
       <c r="U1" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="70" t="s">
+      <c r="V1" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="70" t="s">
+      <c r="W1" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="70" t="s">
+      <c r="X1" s="71" t="s">
         <v>158</v>
       </c>
       <c r="Y1" s="45" t="s">
@@ -39558,10 +39652,10 @@
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -39656,7 +39750,7 @@
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="49"/>
@@ -39676,7 +39770,7 @@
       <c r="Q5" s="49"/>
       <c r="R5" s="49"/>
       <c r="S5" s="49" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="T5" s="50"/>
       <c r="U5" s="50"/>
@@ -39690,33 +39784,33 @@
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="49"/>
       <c r="I6" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
       <c r="M6" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N6" s="50"/>
       <c r="O6" s="49"/>
@@ -39729,7 +39823,7 @@
       <c r="V6" s="49"/>
       <c r="W6" s="49"/>
       <c r="X6" s="49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Y6" s="50"/>
       <c r="Z6" s="50"/>
@@ -39737,8 +39831,8 @@
       <c r="AB6" s="50"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>182</v>
+      <c r="A7" s="72" t="s">
+        <v>185</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -39770,34 +39864,34 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="54" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K8" s="19">
         <v>10.0</v>
@@ -39810,13 +39904,13 @@
       </c>
       <c r="N8" s="57"/>
       <c r="O8" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="R8" s="19">
         <v>0.0</v>
@@ -39825,63 +39919,63 @@
         <v>0.0</v>
       </c>
       <c r="T8" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U8" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="V8" s="72">
+        <v>199</v>
+      </c>
+      <c r="V8" s="73">
         <v>44927.0</v>
       </c>
-      <c r="W8" s="72">
+      <c r="W8" s="73">
         <v>45292.0</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y8" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z8" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA8" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AB8" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K9" s="19">
         <v>20.0</v>
@@ -39894,13 +39988,13 @@
       </c>
       <c r="N9" s="57"/>
       <c r="O9" s="19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R9" s="19">
         <v>0.0</v>
@@ -39909,63 +40003,63 @@
         <v>0.0</v>
       </c>
       <c r="T9" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U9" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="V9" s="72">
+        <v>199</v>
+      </c>
+      <c r="V9" s="73">
         <v>44927.0</v>
       </c>
-      <c r="W9" s="72">
+      <c r="W9" s="73">
         <v>45292.0</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y9" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z9" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AB9" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="54" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K10" s="19">
         <v>30.0</v>
@@ -39978,13 +40072,13 @@
       </c>
       <c r="N10" s="57"/>
       <c r="O10" s="19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="R10" s="19">
         <v>0.0</v>
@@ -39993,63 +40087,63 @@
         <v>0.0</v>
       </c>
       <c r="T10" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U10" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="V10" s="72">
+        <v>199</v>
+      </c>
+      <c r="V10" s="73">
         <v>44927.0</v>
       </c>
-      <c r="W10" s="72">
+      <c r="W10" s="73">
         <v>45292.0</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y10" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AB10" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K11" s="19">
         <v>40.0</v>
@@ -40062,13 +40156,13 @@
       </c>
       <c r="N11" s="57"/>
       <c r="O11" s="19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="R11" s="19">
         <v>0.0</v>
@@ -40077,63 +40171,63 @@
         <v>0.0</v>
       </c>
       <c r="T11" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U11" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="V11" s="72">
+        <v>199</v>
+      </c>
+      <c r="V11" s="73">
         <v>44927.0</v>
       </c>
-      <c r="W11" s="72">
+      <c r="W11" s="73">
         <v>45292.0</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y11" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z11" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA11" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AB11" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K12" s="19">
         <v>50.0</v>
@@ -40146,13 +40240,13 @@
       </c>
       <c r="N12" s="57"/>
       <c r="O12" s="19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R12" s="19">
         <v>0.0</v>
@@ -40161,63 +40255,63 @@
         <v>0.0</v>
       </c>
       <c r="T12" s="62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U12" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="V12" s="72">
+        <v>199</v>
+      </c>
+      <c r="V12" s="73">
         <v>44927.0</v>
       </c>
-      <c r="W12" s="72">
+      <c r="W12" s="73">
         <v>45292.0</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y12" s="62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z12" s="62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA12" s="62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AB12" s="62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K13" s="19">
         <v>100.0</v>
@@ -40230,13 +40324,13 @@
       </c>
       <c r="N13" s="57"/>
       <c r="O13" s="19" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="R13" s="19">
         <v>0.0</v>
@@ -40245,104 +40339,104 @@
         <v>0.0</v>
       </c>
       <c r="T13" s="62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U13" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="V13" s="72">
+        <v>199</v>
+      </c>
+      <c r="V13" s="73">
         <v>44562.0</v>
       </c>
-      <c r="W13" s="72">
+      <c r="W13" s="73">
         <v>45658.0</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Y13" s="62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z13" s="62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA13" s="62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AB13" s="62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
+        <v>250</v>
+      </c>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="54" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
+        <v>252</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="65"/>
@@ -40372,7 +40466,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="D18" s="74"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="66"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -40386,7 +40480,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="65"/>
-      <c r="D19" s="74"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
       <c r="G19" s="66"/>
@@ -40400,7 +40494,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="65"/>
-      <c r="D20" s="74"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="66"/>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
@@ -40414,7 +40508,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="65"/>
-      <c r="D21" s="74"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
@@ -52454,13 +52548,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="42" t="s">
@@ -52490,60 +52584,60 @@
       <c r="Z1" s="44"/>
     </row>
     <row r="2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="49" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="48"/>
     </row>
     <row r="4">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="48"/>
     </row>
     <row r="5">
-      <c r="A5" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="80" t="s">
-        <v>179</v>
+      <c r="A5" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="D5" s="50"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="81" t="s">
-        <v>182</v>
+      <c r="A6" s="82" t="s">
+        <v>185</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="82"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="52"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="54" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D7" s="55">
         <v>1001.0</v>
@@ -52551,13 +52645,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D8" s="55">
         <v>1002.0</v>
@@ -52565,13 +52659,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="54" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D9" s="55">
         <v>1003.0</v>
@@ -52579,13 +52673,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D10" s="55">
         <v>1004.0</v>
@@ -52593,13 +52687,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D11" s="55">
         <v>1005.0</v>
@@ -52607,13 +52701,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D12" s="55">
         <v>1006.0</v>
@@ -52621,13 +52715,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D13" s="55">
         <v>1007.0</v>
@@ -52635,13 +52729,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D14" s="55">
         <v>1008.0</v>
@@ -55848,72 +55942,82 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>295</v>
+      <c r="A1" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>298</v>
+      <c r="A2" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>300</v>
+      <c r="B3" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="85" t="s">
-        <v>296</v>
+      <c r="A4" s="86" t="s">
+        <v>299</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>304</v>
+      <c r="A5" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1"/>
+      <c r="A6" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>311</v>
+      </c>
+    </row>
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.75" customHeight="1"/>
     <row r="10" ht="12.75" customHeight="1"/>
@@ -56903,10 +57007,6 @@
     <row r="994" ht="12.75" customHeight="1"/>
     <row r="995" ht="12.75" customHeight="1"/>
     <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -56925,51 +57025,106 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="1" max="1" width="22.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>309</v>
+        <v>312</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="91">
+      <c r="A2" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="92">
         <v>0.0</v>
       </c>
-      <c r="C2" s="90" t="s">
-        <v>310</v>
+      <c r="C2" s="91" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="91">
+      <c r="A3" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="92">
         <v>1.0</v>
       </c>
-      <c r="C3" s="90" t="s">
-        <v>311</v>
+      <c r="C3" s="91" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="91">
+      <c r="A4" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="92">
         <v>2.0</v>
       </c>
-      <c r="C4" s="90" t="s">
-        <v>312</v>
+      <c r="C4" s="91" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -57001,7 +57156,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="41"/>
       <c r="B1" s="44" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -57048,13 +57203,13 @@
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B5" s="48"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B6" s="52"/>
     </row>
